--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Arf1-Insr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Arf1-Insr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.60456166666667</v>
+        <v>74.386083</v>
       </c>
       <c r="H2">
-        <v>94.81368500000001</v>
+        <v>223.158249</v>
       </c>
       <c r="I2">
-        <v>0.07491217735960554</v>
+        <v>0.1411183975603248</v>
       </c>
       <c r="J2">
-        <v>0.07491217735960554</v>
+        <v>0.1411183975603248</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.790333</v>
+        <v>12.800308</v>
       </c>
       <c r="N2">
-        <v>38.370999</v>
+        <v>38.400924</v>
       </c>
       <c r="O2">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="P2">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="Q2">
-        <v>404.2328680357016</v>
+        <v>952.1647733135641</v>
       </c>
       <c r="R2">
-        <v>3638.095812321315</v>
+        <v>8569.482959822077</v>
       </c>
       <c r="S2">
-        <v>0.01638434321185823</v>
+        <v>0.03601607236281861</v>
       </c>
       <c r="T2">
-        <v>0.01638434321185823</v>
+        <v>0.0360160723628186</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.60456166666667</v>
+        <v>74.386083</v>
       </c>
       <c r="H3">
-        <v>94.81368500000001</v>
+        <v>223.158249</v>
       </c>
       <c r="I3">
-        <v>0.07491217735960554</v>
+        <v>0.1411183975603248</v>
       </c>
       <c r="J3">
-        <v>0.07491217735960554</v>
+        <v>0.1411183975603248</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.628896000000001</v>
+        <v>3.628896</v>
       </c>
       <c r="N3">
         <v>10.886688</v>
       </c>
       <c r="O3">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="P3">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="Q3">
-        <v>114.68966741392</v>
+        <v>269.939359054368</v>
       </c>
       <c r="R3">
-        <v>1032.20700672528</v>
+        <v>2429.454231489311</v>
       </c>
       <c r="S3">
-        <v>0.004648594961846538</v>
+        <v>0.01021058094329785</v>
       </c>
       <c r="T3">
-        <v>0.004648594961846537</v>
+        <v>0.01021058094329785</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.60456166666667</v>
+        <v>74.386083</v>
       </c>
       <c r="H4">
-        <v>94.81368500000001</v>
+        <v>223.158249</v>
       </c>
       <c r="I4">
-        <v>0.07491217735960554</v>
+        <v>0.1411183975603248</v>
       </c>
       <c r="J4">
-        <v>0.07491217735960554</v>
+        <v>0.1411183975603248</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.859786</v>
+        <v>5.520799</v>
       </c>
       <c r="N4">
-        <v>20.579358</v>
+        <v>16.562397</v>
       </c>
       <c r="O4">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="P4">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="Q4">
-        <v>216.8005296571367</v>
+        <v>410.670612640317</v>
       </c>
       <c r="R4">
-        <v>1951.20476691423</v>
+        <v>3696.035513762853</v>
       </c>
       <c r="S4">
-        <v>0.008787346520524536</v>
+        <v>0.01553380561503494</v>
       </c>
       <c r="T4">
-        <v>0.008787346520524536</v>
+        <v>0.01553380561503493</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.60456166666667</v>
+        <v>74.386083</v>
       </c>
       <c r="H5">
-        <v>94.81368500000001</v>
+        <v>223.158249</v>
       </c>
       <c r="I5">
-        <v>0.07491217735960554</v>
+        <v>0.1411183975603248</v>
       </c>
       <c r="J5">
-        <v>0.07491217735960554</v>
+        <v>0.1411183975603248</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.351654000000002</v>
+        <v>2.905047666666667</v>
       </c>
       <c r="N5">
-        <v>25.054962</v>
+        <v>8.715143000000001</v>
       </c>
       <c r="O5">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="P5">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="Q5">
-        <v>263.9503638616634</v>
+        <v>216.095116851623</v>
       </c>
       <c r="R5">
-        <v>2375.553274754971</v>
+        <v>1944.856051664607</v>
       </c>
       <c r="S5">
-        <v>0.01069842087166055</v>
+        <v>0.008173897610909366</v>
       </c>
       <c r="T5">
-        <v>0.01069842087166055</v>
+        <v>0.008173897610909364</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.60456166666667</v>
+        <v>74.386083</v>
       </c>
       <c r="H6">
-        <v>94.81368500000001</v>
+        <v>223.158249</v>
       </c>
       <c r="I6">
-        <v>0.07491217735960554</v>
+        <v>0.1411183975603248</v>
       </c>
       <c r="J6">
-        <v>0.07491217735960554</v>
+        <v>0.1411183975603248</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.92892566666667</v>
+        <v>20.19342933333333</v>
       </c>
       <c r="N6">
-        <v>47.786777</v>
+        <v>60.580288</v>
       </c>
       <c r="O6">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="P6">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="Q6">
-        <v>503.4267135159162</v>
+        <v>1502.110110443968</v>
       </c>
       <c r="R6">
-        <v>4530.840421643245</v>
+        <v>13518.99099399571</v>
       </c>
       <c r="S6">
-        <v>0.02040486241592337</v>
+        <v>0.05681800876375766</v>
       </c>
       <c r="T6">
-        <v>0.02040486241592337</v>
+        <v>0.05681800876375764</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>31.60456166666667</v>
+        <v>74.386083</v>
       </c>
       <c r="H7">
-        <v>94.81368500000001</v>
+        <v>223.158249</v>
       </c>
       <c r="I7">
-        <v>0.07491217735960554</v>
+        <v>0.1411183975603248</v>
       </c>
       <c r="J7">
-        <v>0.07491217735960554</v>
+        <v>0.1411183975603248</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.92011866666667</v>
+        <v>5.105766</v>
       </c>
       <c r="N7">
-        <v>32.76035599999999</v>
+        <v>15.317298</v>
       </c>
       <c r="O7">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223807</v>
       </c>
       <c r="P7">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223806</v>
       </c>
       <c r="Q7">
-        <v>345.1255638079844</v>
+        <v>379.797933454578</v>
       </c>
       <c r="R7">
-        <v>3106.130074271859</v>
+        <v>3418.181401091202</v>
       </c>
       <c r="S7">
-        <v>0.01398860937779231</v>
+        <v>0.01436603226450637</v>
       </c>
       <c r="T7">
-        <v>0.0139886093777923</v>
+        <v>0.01436603226450636</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>305.170493</v>
       </c>
       <c r="I8">
-        <v>0.2411148358650363</v>
+        <v>0.1929804125450649</v>
       </c>
       <c r="J8">
-        <v>0.2411148358650363</v>
+        <v>0.1929804125450648</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.790333</v>
+        <v>12.800308</v>
       </c>
       <c r="N8">
-        <v>38.370999</v>
+        <v>38.400924</v>
       </c>
       <c r="O8">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="P8">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="Q8">
-        <v>1301.07740908139</v>
+        <v>1302.092100970615</v>
       </c>
       <c r="R8">
-        <v>11709.6966817325</v>
+        <v>11718.82890873553</v>
       </c>
       <c r="S8">
-        <v>0.05273519424378433</v>
+        <v>0.04925223516557092</v>
       </c>
       <c r="T8">
-        <v>0.05273519424378432</v>
+        <v>0.04925223516557091</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>305.170493</v>
       </c>
       <c r="I9">
-        <v>0.2411148358650363</v>
+        <v>0.1929804125450649</v>
       </c>
       <c r="J9">
-        <v>0.2411148358650363</v>
+        <v>0.1929804125450648</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.628896000000001</v>
+        <v>3.628896</v>
       </c>
       <c r="N9">
         <v>10.886688</v>
       </c>
       <c r="O9">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="P9">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="Q9">
-        <v>369.143993788576</v>
+        <v>369.1439937885759</v>
       </c>
       <c r="R9">
         <v>3322.295944097184</v>
       </c>
       <c r="S9">
-        <v>0.01496212299167598</v>
+        <v>0.01396304207550315</v>
       </c>
       <c r="T9">
-        <v>0.01496212299167598</v>
+        <v>0.01396304207550315</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>305.170493</v>
       </c>
       <c r="I10">
-        <v>0.2411148358650363</v>
+        <v>0.1929804125450649</v>
       </c>
       <c r="J10">
-        <v>0.2411148358650363</v>
+        <v>0.1929804125450648</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.859786</v>
+        <v>5.520799</v>
       </c>
       <c r="N10">
-        <v>20.579358</v>
+        <v>16.562397</v>
       </c>
       <c r="O10">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="P10">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="Q10">
-        <v>697.8014251648326</v>
+        <v>561.5949841946357</v>
       </c>
       <c r="R10">
-        <v>6280.212826483493</v>
+        <v>5054.35485775172</v>
       </c>
       <c r="S10">
-        <v>0.02828324697885445</v>
+        <v>0.0212425896822052</v>
       </c>
       <c r="T10">
-        <v>0.02828324697885444</v>
+        <v>0.0212425896822052</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>305.170493</v>
       </c>
       <c r="I11">
-        <v>0.2411148358650363</v>
+        <v>0.1929804125450649</v>
       </c>
       <c r="J11">
-        <v>0.2411148358650363</v>
+        <v>0.1929804125450648</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.351654000000002</v>
+        <v>2.905047666666667</v>
       </c>
       <c r="N11">
-        <v>25.054962</v>
+        <v>8.715143000000001</v>
       </c>
       <c r="O11">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="P11">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="Q11">
-        <v>849.5594561818075</v>
+        <v>295.5116095417221</v>
       </c>
       <c r="R11">
-        <v>7646.035105636266</v>
+        <v>2659.604485875499</v>
       </c>
       <c r="S11">
-        <v>0.03443429470889292</v>
+        <v>0.01117786313000123</v>
       </c>
       <c r="T11">
-        <v>0.03443429470889291</v>
+        <v>0.01117786313000122</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>305.170493</v>
       </c>
       <c r="I12">
-        <v>0.2411148358650363</v>
+        <v>0.1929804125450649</v>
       </c>
       <c r="J12">
-        <v>0.2411148358650363</v>
+        <v>0.1929804125450648</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.92892566666667</v>
+        <v>20.19342933333333</v>
       </c>
       <c r="N12">
-        <v>47.786777</v>
+        <v>60.580288</v>
       </c>
       <c r="O12">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="P12">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="Q12">
-        <v>1620.346032885673</v>
+        <v>2054.146261671331</v>
       </c>
       <c r="R12">
-        <v>14583.11429597106</v>
+        <v>18487.31635504198</v>
       </c>
       <c r="S12">
-        <v>0.06567577162584183</v>
+        <v>0.07769903117367731</v>
       </c>
       <c r="T12">
-        <v>0.06567577162584183</v>
+        <v>0.0776990311736773</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>305.170493</v>
       </c>
       <c r="I13">
-        <v>0.2411148358650363</v>
+        <v>0.1929804125450649</v>
       </c>
       <c r="J13">
-        <v>0.2411148358650363</v>
+        <v>0.1929804125450648</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.92011866666667</v>
+        <v>5.105766</v>
       </c>
       <c r="N13">
-        <v>32.76035599999999</v>
+        <v>15.317298</v>
       </c>
       <c r="O13">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223807</v>
       </c>
       <c r="P13">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223806</v>
       </c>
       <c r="Q13">
-        <v>1110.83266570839</v>
+        <v>519.376375787546</v>
       </c>
       <c r="R13">
-        <v>9997.493991375504</v>
+        <v>4674.387382087913</v>
       </c>
       <c r="S13">
-        <v>0.04502420531598683</v>
+        <v>0.01964565131810706</v>
       </c>
       <c r="T13">
-        <v>0.04502420531598681</v>
+        <v>0.01964565131810705</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>75.55512366666666</v>
+        <v>106.8126066666667</v>
       </c>
       <c r="H14">
-        <v>226.665371</v>
+        <v>320.43782</v>
       </c>
       <c r="I14">
-        <v>0.179088034323661</v>
+        <v>0.2026349995071157</v>
       </c>
       <c r="J14">
-        <v>0.179088034323661</v>
+        <v>0.2026349995071156</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.790333</v>
+        <v>12.800308</v>
       </c>
       <c r="N14">
-        <v>38.370999</v>
+        <v>38.400924</v>
       </c>
       <c r="O14">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="P14">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="Q14">
-        <v>966.3751915528475</v>
+        <v>1367.234263616187</v>
       </c>
       <c r="R14">
-        <v>8697.376723975629</v>
+        <v>12305.10837254568</v>
       </c>
       <c r="S14">
-        <v>0.03916906333412922</v>
+        <v>0.05171626755730569</v>
       </c>
       <c r="T14">
-        <v>0.03916906333412922</v>
+        <v>0.05171626755730568</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>75.55512366666666</v>
+        <v>106.8126066666667</v>
       </c>
       <c r="H15">
-        <v>226.665371</v>
+        <v>320.43782</v>
       </c>
       <c r="I15">
-        <v>0.179088034323661</v>
+        <v>0.2026349995071157</v>
       </c>
       <c r="J15">
-        <v>0.179088034323661</v>
+        <v>0.2026349995071156</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.628896000000001</v>
+        <v>3.628896</v>
       </c>
       <c r="N15">
         <v>10.886688</v>
       </c>
       <c r="O15">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="P15">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="Q15">
-        <v>274.181686053472</v>
+        <v>387.6118410822399</v>
       </c>
       <c r="R15">
-        <v>2467.635174481248</v>
+        <v>3488.50656974016</v>
       </c>
       <c r="S15">
-        <v>0.01111311623059136</v>
+        <v>0.01466159692982672</v>
       </c>
       <c r="T15">
-        <v>0.01111311623059135</v>
+        <v>0.01466159692982672</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>75.55512366666666</v>
+        <v>106.8126066666667</v>
       </c>
       <c r="H16">
-        <v>226.665371</v>
+        <v>320.43782</v>
       </c>
       <c r="I16">
-        <v>0.179088034323661</v>
+        <v>0.2026349995071157</v>
       </c>
       <c r="J16">
-        <v>0.179088034323661</v>
+        <v>0.2026349995071156</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.859786</v>
+        <v>5.520799</v>
       </c>
       <c r="N16">
-        <v>20.579358</v>
+        <v>16.562397</v>
       </c>
       <c r="O16">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="P16">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="Q16">
-        <v>518.2919795568686</v>
+        <v>589.6909320727267</v>
       </c>
       <c r="R16">
-        <v>4664.627816011817</v>
+        <v>5307.21838865454</v>
       </c>
       <c r="S16">
-        <v>0.02100738051875373</v>
+        <v>0.02230533188842844</v>
       </c>
       <c r="T16">
-        <v>0.02100738051875373</v>
+        <v>0.02230533188842844</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>75.55512366666666</v>
+        <v>106.8126066666667</v>
       </c>
       <c r="H17">
-        <v>226.665371</v>
+        <v>320.43782</v>
       </c>
       <c r="I17">
-        <v>0.179088034323661</v>
+        <v>0.2026349995071157</v>
       </c>
       <c r="J17">
-        <v>0.179088034323661</v>
+        <v>0.2026349995071156</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.351654000000002</v>
+        <v>2.905047666666667</v>
       </c>
       <c r="N17">
-        <v>25.054962</v>
+        <v>8.715143000000001</v>
       </c>
       <c r="O17">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="P17">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="Q17">
-        <v>631.0102507912114</v>
+        <v>310.2957137675845</v>
       </c>
       <c r="R17">
-        <v>5679.092257120903</v>
+        <v>2792.66142390826</v>
       </c>
       <c r="S17">
-        <v>0.02557607096474609</v>
+        <v>0.01173707870123594</v>
       </c>
       <c r="T17">
-        <v>0.02557607096474608</v>
+        <v>0.01173707870123593</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>75.55512366666666</v>
+        <v>106.8126066666667</v>
       </c>
       <c r="H18">
-        <v>226.665371</v>
+        <v>320.43782</v>
       </c>
       <c r="I18">
-        <v>0.179088034323661</v>
+        <v>0.2026349995071157</v>
       </c>
       <c r="J18">
-        <v>0.179088034323661</v>
+        <v>0.2026349995071156</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>15.92892566666667</v>
+        <v>20.19342933333333</v>
       </c>
       <c r="N18">
-        <v>47.786777</v>
+        <v>60.580288</v>
       </c>
       <c r="O18">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="P18">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="Q18">
-        <v>1203.511948622141</v>
+        <v>2156.912824632462</v>
       </c>
       <c r="R18">
-        <v>10831.60753759927</v>
+        <v>19412.21542169216</v>
       </c>
       <c r="S18">
-        <v>0.04878067664714462</v>
+        <v>0.08158622388634802</v>
       </c>
       <c r="T18">
-        <v>0.04878067664714462</v>
+        <v>0.08158622388634801</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>75.55512366666666</v>
+        <v>106.8126066666667</v>
       </c>
       <c r="H19">
-        <v>226.665371</v>
+        <v>320.43782</v>
       </c>
       <c r="I19">
-        <v>0.179088034323661</v>
+        <v>0.2026349995071157</v>
       </c>
       <c r="J19">
-        <v>0.179088034323661</v>
+        <v>0.2026349995071156</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.92011866666667</v>
+        <v>5.105766</v>
       </c>
       <c r="N19">
-        <v>32.76035599999999</v>
+        <v>15.317298</v>
       </c>
       <c r="O19">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223807</v>
       </c>
       <c r="P19">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223806</v>
       </c>
       <c r="Q19">
-        <v>825.0709163146749</v>
+        <v>545.36017549004</v>
       </c>
       <c r="R19">
-        <v>7425.638246832074</v>
+        <v>4908.24157941036</v>
       </c>
       <c r="S19">
-        <v>0.03344172662829603</v>
+        <v>0.02062850054397085</v>
       </c>
       <c r="T19">
-        <v>0.03344172662829602</v>
+        <v>0.02062850054397085</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>48.49196966666667</v>
+        <v>45.81992766666667</v>
       </c>
       <c r="H20">
-        <v>145.475909</v>
+        <v>137.459783</v>
       </c>
       <c r="I20">
-        <v>0.114940339008634</v>
+        <v>0.08692532941477767</v>
       </c>
       <c r="J20">
-        <v>0.114940339008634</v>
+        <v>0.08692532941477765</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.790333</v>
+        <v>12.800308</v>
       </c>
       <c r="N20">
-        <v>38.370999</v>
+        <v>38.400924</v>
       </c>
       <c r="O20">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="P20">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="Q20">
-        <v>620.2284398625657</v>
+        <v>586.5091866710547</v>
       </c>
       <c r="R20">
-        <v>5582.055958763091</v>
+        <v>5278.582680039493</v>
       </c>
       <c r="S20">
-        <v>0.02513906322819386</v>
+        <v>0.02218498089893753</v>
       </c>
       <c r="T20">
-        <v>0.02513906322819386</v>
+        <v>0.02218498089893753</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>48.49196966666667</v>
+        <v>45.81992766666667</v>
       </c>
       <c r="H21">
-        <v>145.475909</v>
+        <v>137.459783</v>
       </c>
       <c r="I21">
-        <v>0.114940339008634</v>
+        <v>0.08692532941477767</v>
       </c>
       <c r="J21">
-        <v>0.114940339008634</v>
+        <v>0.08692532941477765</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.628896000000001</v>
+        <v>3.628896</v>
       </c>
       <c r="N21">
         <v>10.886688</v>
       </c>
       <c r="O21">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="P21">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="Q21">
-        <v>175.972314755488</v>
+        <v>166.275752229856</v>
       </c>
       <c r="R21">
-        <v>1583.750832799392</v>
+        <v>1496.481770068704</v>
       </c>
       <c r="S21">
-        <v>0.007132499677102998</v>
+        <v>0.006289457132143289</v>
       </c>
       <c r="T21">
-        <v>0.007132499677102997</v>
+        <v>0.006289457132143287</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>48.49196966666667</v>
+        <v>45.81992766666667</v>
       </c>
       <c r="H22">
-        <v>145.475909</v>
+        <v>137.459783</v>
       </c>
       <c r="I22">
-        <v>0.114940339008634</v>
+        <v>0.08692532941477767</v>
       </c>
       <c r="J22">
-        <v>0.114940339008634</v>
+        <v>0.08692532941477765</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.859786</v>
+        <v>5.520799</v>
       </c>
       <c r="N22">
-        <v>20.579358</v>
+        <v>16.562397</v>
       </c>
       <c r="O22">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="P22">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="Q22">
-        <v>332.6445346318247</v>
+        <v>252.9626108422057</v>
       </c>
       <c r="R22">
-        <v>2993.800811686422</v>
+        <v>2276.663497579852</v>
       </c>
       <c r="S22">
-        <v>0.01348272902557573</v>
+        <v>0.009568427600482222</v>
       </c>
       <c r="T22">
-        <v>0.01348272902557573</v>
+        <v>0.009568427600482222</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>48.49196966666667</v>
+        <v>45.81992766666667</v>
       </c>
       <c r="H23">
-        <v>145.475909</v>
+        <v>137.459783</v>
       </c>
       <c r="I23">
-        <v>0.114940339008634</v>
+        <v>0.08692532941477767</v>
       </c>
       <c r="J23">
-        <v>0.114940339008634</v>
+        <v>0.08692532941477765</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.351654000000002</v>
+        <v>2.905047666666667</v>
       </c>
       <c r="N23">
-        <v>25.054962</v>
+        <v>8.715143000000001</v>
       </c>
       <c r="O23">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="P23">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="Q23">
-        <v>404.9881524344954</v>
+        <v>133.1090739548855</v>
       </c>
       <c r="R23">
-        <v>3644.893371910458</v>
+        <v>1197.981665593969</v>
       </c>
       <c r="S23">
-        <v>0.01641495635539733</v>
+        <v>0.005034912206448707</v>
       </c>
       <c r="T23">
-        <v>0.01641495635539733</v>
+        <v>0.005034912206448706</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>48.49196966666667</v>
+        <v>45.81992766666667</v>
       </c>
       <c r="H24">
-        <v>145.475909</v>
+        <v>137.459783</v>
       </c>
       <c r="I24">
-        <v>0.114940339008634</v>
+        <v>0.08692532941477767</v>
       </c>
       <c r="J24">
-        <v>0.114940339008634</v>
+        <v>0.08692532941477765</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>15.92892566666667</v>
+        <v>20.19342933333333</v>
       </c>
       <c r="N24">
-        <v>47.786777</v>
+        <v>60.580288</v>
       </c>
       <c r="O24">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="P24">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="Q24">
-        <v>772.4249802505882</v>
+        <v>925.2614713952782</v>
       </c>
       <c r="R24">
-        <v>6951.824822255293</v>
+        <v>8327.353242557505</v>
       </c>
       <c r="S24">
-        <v>0.03130788459468049</v>
+        <v>0.03499844254091735</v>
       </c>
       <c r="T24">
-        <v>0.03130788459468049</v>
+        <v>0.03499844254091734</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>48.49196966666667</v>
+        <v>45.81992766666667</v>
       </c>
       <c r="H25">
-        <v>145.475909</v>
+        <v>137.459783</v>
       </c>
       <c r="I25">
-        <v>0.114940339008634</v>
+        <v>0.08692532941477767</v>
       </c>
       <c r="J25">
-        <v>0.114940339008634</v>
+        <v>0.08692532941477765</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.92011866666667</v>
+        <v>5.105766</v>
       </c>
       <c r="N25">
-        <v>32.76035599999999</v>
+        <v>15.317298</v>
       </c>
       <c r="O25">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223807</v>
       </c>
       <c r="P25">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223806</v>
       </c>
       <c r="Q25">
-        <v>529.5380631404004</v>
+        <v>233.945828802926</v>
       </c>
       <c r="R25">
-        <v>4765.842568263603</v>
+        <v>2105.512459226334</v>
       </c>
       <c r="S25">
-        <v>0.02146320612768357</v>
+        <v>0.008849109035848565</v>
       </c>
       <c r="T25">
-        <v>0.02146320612768357</v>
+        <v>0.008849109035848561</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>93.51473466666668</v>
+        <v>99.69332866666667</v>
       </c>
       <c r="H26">
-        <v>280.544204</v>
+        <v>299.079986</v>
       </c>
       <c r="I26">
-        <v>0.2216576348367576</v>
+        <v>0.1891289636650823</v>
       </c>
       <c r="J26">
-        <v>0.2216576348367575</v>
+        <v>0.1891289636650822</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>12.790333</v>
+        <v>12.800308</v>
       </c>
       <c r="N26">
-        <v>38.370999</v>
+        <v>38.400924</v>
       </c>
       <c r="O26">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="P26">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="Q26">
-        <v>1196.084596793311</v>
+        <v>1276.105312478563</v>
       </c>
       <c r="R26">
-        <v>10764.7613711398</v>
+        <v>11484.94781230707</v>
       </c>
       <c r="S26">
-        <v>0.0484796316526836</v>
+        <v>0.04826927288736155</v>
       </c>
       <c r="T26">
-        <v>0.04847963165268359</v>
+        <v>0.04826927288736155</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>93.51473466666668</v>
+        <v>99.69332866666667</v>
       </c>
       <c r="H27">
-        <v>280.544204</v>
+        <v>299.079986</v>
       </c>
       <c r="I27">
-        <v>0.2216576348367576</v>
+        <v>0.1891289636650823</v>
       </c>
       <c r="J27">
-        <v>0.2216576348367575</v>
+        <v>0.1891289636650822</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>3.628896000000001</v>
+        <v>3.628896</v>
       </c>
       <c r="N27">
         <v>10.886688</v>
       </c>
       <c r="O27">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="P27">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="Q27">
-        <v>339.3552465729281</v>
+        <v>361.776721625152</v>
       </c>
       <c r="R27">
-        <v>3054.197219156353</v>
+        <v>3255.990494626368</v>
       </c>
       <c r="S27">
-        <v>0.01375472721358365</v>
+        <v>0.01368437160292196</v>
       </c>
       <c r="T27">
-        <v>0.01375472721358364</v>
+        <v>0.01368437160292196</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>93.51473466666668</v>
+        <v>99.69332866666667</v>
       </c>
       <c r="H28">
-        <v>280.544204</v>
+        <v>299.079986</v>
       </c>
       <c r="I28">
-        <v>0.2216576348367576</v>
+        <v>0.1891289636650823</v>
       </c>
       <c r="J28">
-        <v>0.2216576348367575</v>
+        <v>0.1891289636650822</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>6.859786</v>
+        <v>5.520799</v>
       </c>
       <c r="N28">
-        <v>20.579358</v>
+        <v>16.562397</v>
       </c>
       <c r="O28">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="P28">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="Q28">
-        <v>641.4910676601147</v>
+        <v>550.3868292096047</v>
       </c>
       <c r="R28">
-        <v>5773.419608941032</v>
+        <v>4953.481462886442</v>
       </c>
       <c r="S28">
-        <v>0.02600087882748916</v>
+        <v>0.02081863604276341</v>
       </c>
       <c r="T28">
-        <v>0.02600087882748915</v>
+        <v>0.02081863604276341</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>93.51473466666668</v>
+        <v>99.69332866666667</v>
       </c>
       <c r="H29">
-        <v>280.544204</v>
+        <v>299.079986</v>
       </c>
       <c r="I29">
-        <v>0.2216576348367576</v>
+        <v>0.1891289636650823</v>
       </c>
       <c r="J29">
-        <v>0.2216576348367575</v>
+        <v>0.1891289636650822</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>8.351654000000002</v>
+        <v>2.905047666666667</v>
       </c>
       <c r="N29">
-        <v>25.054962</v>
+        <v>8.715143000000001</v>
       </c>
       <c r="O29">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="P29">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="Q29">
-        <v>781.0027078378056</v>
+        <v>289.6138718253331</v>
       </c>
       <c r="R29">
-        <v>7029.02437054025</v>
+        <v>2606.524846427998</v>
       </c>
       <c r="S29">
-        <v>0.03165555655280138</v>
+        <v>0.0109547784766684</v>
       </c>
       <c r="T29">
-        <v>0.03165555655280137</v>
+        <v>0.0109547784766684</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>93.51473466666668</v>
+        <v>99.69332866666667</v>
       </c>
       <c r="H30">
-        <v>280.544204</v>
+        <v>299.079986</v>
       </c>
       <c r="I30">
-        <v>0.2216576348367576</v>
+        <v>0.1891289636650823</v>
       </c>
       <c r="J30">
-        <v>0.2216576348367575</v>
+        <v>0.1891289636650822</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>15.92892566666667</v>
+        <v>20.19342933333333</v>
       </c>
       <c r="N30">
-        <v>47.786777</v>
+        <v>60.580288</v>
       </c>
       <c r="O30">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="P30">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="Q30">
-        <v>1489.58925724339</v>
+        <v>2013.150187435107</v>
       </c>
       <c r="R30">
-        <v>13406.30331519051</v>
+        <v>18118.35168691597</v>
       </c>
       <c r="S30">
-        <v>0.06037594556318257</v>
+        <v>0.07614833572929011</v>
       </c>
       <c r="T30">
-        <v>0.06037594556318256</v>
+        <v>0.0761483357292901</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>93.51473466666668</v>
+        <v>99.69332866666667</v>
       </c>
       <c r="H31">
-        <v>280.544204</v>
+        <v>299.079986</v>
       </c>
       <c r="I31">
-        <v>0.2216576348367576</v>
+        <v>0.1891289636650823</v>
       </c>
       <c r="J31">
-        <v>0.2216576348367575</v>
+        <v>0.1891289636650822</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>10.92011866666667</v>
+        <v>5.105766</v>
       </c>
       <c r="N31">
-        <v>32.76035599999999</v>
+        <v>15.317298</v>
       </c>
       <c r="O31">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223807</v>
       </c>
       <c r="P31">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223806</v>
       </c>
       <c r="Q31">
-        <v>1021.191999641847</v>
+        <v>509.0108079330921</v>
       </c>
       <c r="R31">
-        <v>9190.727996776624</v>
+        <v>4581.097271397828</v>
       </c>
       <c r="S31">
-        <v>0.04139089502701723</v>
+        <v>0.01925356892607681</v>
       </c>
       <c r="T31">
-        <v>0.04139089502701722</v>
+        <v>0.01925356892607681</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>70.99828599999999</v>
+        <v>98.68280800000001</v>
       </c>
       <c r="H32">
-        <v>212.994858</v>
+        <v>296.048424</v>
       </c>
       <c r="I32">
-        <v>0.1682869786063055</v>
+        <v>0.1872118973076348</v>
       </c>
       <c r="J32">
-        <v>0.1682869786063056</v>
+        <v>0.1872118973076348</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>12.790333</v>
+        <v>12.800308</v>
       </c>
       <c r="N32">
-        <v>38.370999</v>
+        <v>38.400924</v>
       </c>
       <c r="O32">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="P32">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="Q32">
-        <v>908.0917203692378</v>
+        <v>1263.170336704864</v>
       </c>
       <c r="R32">
-        <v>8172.825483323141</v>
+        <v>11368.53303034378</v>
       </c>
       <c r="S32">
-        <v>0.03680672105332693</v>
+        <v>0.04778000145395659</v>
       </c>
       <c r="T32">
-        <v>0.03680672105332693</v>
+        <v>0.04778000145395658</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>70.99828599999999</v>
+        <v>98.68280800000001</v>
       </c>
       <c r="H33">
-        <v>212.994858</v>
+        <v>296.048424</v>
       </c>
       <c r="I33">
-        <v>0.1682869786063055</v>
+        <v>0.1872118973076348</v>
       </c>
       <c r="J33">
-        <v>0.1682869786063056</v>
+        <v>0.1872118973076348</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>3.628896000000001</v>
+        <v>3.628896</v>
       </c>
       <c r="N33">
         <v>10.886688</v>
       </c>
       <c r="O33">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="P33">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="Q33">
-        <v>257.645396072256</v>
+        <v>358.109647219968</v>
       </c>
       <c r="R33">
-        <v>2318.808564650304</v>
+        <v>3222.986824979712</v>
       </c>
       <c r="S33">
-        <v>0.01044286828212635</v>
+        <v>0.013545662819696</v>
       </c>
       <c r="T33">
-        <v>0.01044286828212635</v>
+        <v>0.013545662819696</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>70.99828599999999</v>
+        <v>98.68280800000001</v>
       </c>
       <c r="H34">
-        <v>212.994858</v>
+        <v>296.048424</v>
       </c>
       <c r="I34">
-        <v>0.1682869786063055</v>
+        <v>0.1872118973076348</v>
       </c>
       <c r="J34">
-        <v>0.1682869786063056</v>
+        <v>0.1872118973076348</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>6.859786</v>
+        <v>5.520799</v>
       </c>
       <c r="N34">
-        <v>20.579358</v>
+        <v>16.562397</v>
       </c>
       <c r="O34">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="P34">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="Q34">
-        <v>487.0330483267959</v>
+        <v>544.8079477235921</v>
       </c>
       <c r="R34">
-        <v>4383.297434941163</v>
+        <v>4903.271529512328</v>
       </c>
       <c r="S34">
-        <v>0.01974039532727704</v>
+        <v>0.02060761227362671</v>
       </c>
       <c r="T34">
-        <v>0.01974039532727704</v>
+        <v>0.0206076122736267</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>70.99828599999999</v>
+        <v>98.68280800000001</v>
       </c>
       <c r="H35">
-        <v>212.994858</v>
+        <v>296.048424</v>
       </c>
       <c r="I35">
-        <v>0.1682869786063055</v>
+        <v>0.1872118973076348</v>
       </c>
       <c r="J35">
-        <v>0.1682869786063056</v>
+        <v>0.1872118973076348</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>8.351654000000002</v>
+        <v>2.905047666666667</v>
       </c>
       <c r="N35">
-        <v>25.054962</v>
+        <v>8.715143000000001</v>
       </c>
       <c r="O35">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="P35">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="Q35">
-        <v>592.9531192650441</v>
+        <v>286.6782611205147</v>
       </c>
       <c r="R35">
-        <v>5336.578073385396</v>
+        <v>2580.104350084633</v>
       </c>
       <c r="S35">
-        <v>0.02403354151232045</v>
+        <v>0.01084373764577747</v>
       </c>
       <c r="T35">
-        <v>0.02403354151232045</v>
+        <v>0.01084373764577747</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>70.99828599999999</v>
+        <v>98.68280800000001</v>
       </c>
       <c r="H36">
-        <v>212.994858</v>
+        <v>296.048424</v>
       </c>
       <c r="I36">
-        <v>0.1682869786063055</v>
+        <v>0.1872118973076348</v>
       </c>
       <c r="J36">
-        <v>0.1682869786063056</v>
+        <v>0.1872118973076348</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>15.92892566666667</v>
+        <v>20.19342933333333</v>
       </c>
       <c r="N36">
-        <v>47.786777</v>
+        <v>60.580288</v>
       </c>
       <c r="O36">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="P36">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="Q36">
-        <v>1130.926420154741</v>
+        <v>1992.744309762901</v>
       </c>
       <c r="R36">
-        <v>10178.33778139267</v>
+        <v>17934.69878786611</v>
       </c>
       <c r="S36">
-        <v>0.04583864420826102</v>
+        <v>0.07537647398070704</v>
       </c>
       <c r="T36">
-        <v>0.04583864420826102</v>
+        <v>0.07537647398070703</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>70.99828599999999</v>
+        <v>98.68280800000001</v>
       </c>
       <c r="H37">
-        <v>212.994858</v>
+        <v>296.048424</v>
       </c>
       <c r="I37">
-        <v>0.1682869786063055</v>
+        <v>0.1872118973076348</v>
       </c>
       <c r="J37">
-        <v>0.1682869786063056</v>
+        <v>0.1872118973076348</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>10.92011866666667</v>
+        <v>5.105766</v>
       </c>
       <c r="N37">
-        <v>32.76035599999999</v>
+        <v>15.317298</v>
       </c>
       <c r="O37">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223807</v>
       </c>
       <c r="P37">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223806</v>
       </c>
       <c r="Q37">
-        <v>775.3097082499385</v>
+        <v>503.8513258709281</v>
       </c>
       <c r="R37">
-        <v>6977.787374249447</v>
+        <v>4534.661932838352</v>
       </c>
       <c r="S37">
-        <v>0.03142480822299376</v>
+        <v>0.01905840913387101</v>
       </c>
       <c r="T37">
-        <v>0.03142480822299375</v>
+        <v>0.019058409133871</v>
       </c>
     </row>
   </sheetData>
